--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1349883557924783</v>
+        <v>-0.1103015140893087</v>
       </c>
       <c r="C2">
-        <v>1.93267810644422</v>
+        <v>1.867466406311011</v>
       </c>
       <c r="D2">
-        <v>16.79600653627128</v>
+        <v>16.07388988832066</v>
       </c>
       <c r="E2">
-        <v>4.098293124737575</v>
+        <v>4.009225597084886</v>
       </c>
       <c r="F2">
-        <v>4.19246071033399</v>
+        <v>4.097780106789175</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1207088239491281</v>
+        <v>0.1241568715908939</v>
       </c>
       <c r="C3">
-        <v>1.786104686133971</v>
+        <v>1.713852921858244</v>
       </c>
       <c r="D3">
-        <v>11.46089906083781</v>
+        <v>10.94170538271163</v>
       </c>
       <c r="E3">
-        <v>3.385394963787507</v>
+        <v>3.307824871832188</v>
       </c>
       <c r="F3">
-        <v>3.46679172473507</v>
+        <v>3.383280951883025</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5555709582211426</v>
+        <v>-0.5207749427252132</v>
       </c>
       <c r="C4">
-        <v>1.050109431406426</v>
+        <v>1.008444475967709</v>
       </c>
       <c r="D4">
-        <v>4.446450755259711</v>
+        <v>4.236175762135406</v>
       </c>
       <c r="E4">
-        <v>2.108660891480589</v>
+        <v>2.058197211672245</v>
       </c>
       <c r="F4">
-        <v>2.087000281350939</v>
+        <v>2.040396452217854</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.07663410097718948</v>
+        <v>0.08713849139876084</v>
       </c>
       <c r="C5">
-        <v>0.7265600105831413</v>
+        <v>0.7045681055244151</v>
       </c>
       <c r="D5">
-        <v>1.828123001807706</v>
+        <v>1.740827324384067</v>
       </c>
       <c r="E5">
-        <v>1.352080989367022</v>
+        <v>1.319404155057906</v>
       </c>
       <c r="F5">
-        <v>1.386898099900304</v>
+        <v>1.350724642826101</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04069671201648461</v>
+        <v>0.05311708210651798</v>
       </c>
       <c r="C6">
-        <v>0.7470070225631975</v>
+        <v>0.7222531657823513</v>
       </c>
       <c r="D6">
-        <v>1.696764068754185</v>
+        <v>1.611489849032536</v>
       </c>
       <c r="E6">
-        <v>1.302598966971103</v>
+        <v>1.269444701053392</v>
       </c>
       <c r="F6">
-        <v>1.339708950721457</v>
+        <v>1.30308821368913</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.003406094425567046</v>
+        <v>0.01086339460369382</v>
       </c>
       <c r="C7">
-        <v>0.6048042399408757</v>
+        <v>0.5852842659497787</v>
       </c>
       <c r="D7">
-        <v>0.6518029153055619</v>
+        <v>0.6191602100143899</v>
       </c>
       <c r="E7">
-        <v>0.8073431211731242</v>
+        <v>0.7868673395270577</v>
       </c>
       <c r="F7">
-        <v>0.8321828350431602</v>
+        <v>0.8096026454595719</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08389501441541836</v>
+        <v>0.09509580837041771</v>
       </c>
       <c r="C8">
-        <v>0.5881369787635709</v>
+        <v>0.5696764806980906</v>
       </c>
       <c r="D8">
-        <v>0.6090337700840233</v>
+        <v>0.5776344400534255</v>
       </c>
       <c r="E8">
-        <v>0.7804061571284681</v>
+        <v>0.760022657592144</v>
       </c>
       <c r="F8">
-        <v>0.8013291602599671</v>
+        <v>0.7772568294901242</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2252430678889189</v>
+        <v>0.2285112237303573</v>
       </c>
       <c r="C9">
-        <v>0.4988259516525997</v>
+        <v>0.484995177258808</v>
       </c>
       <c r="D9">
-        <v>0.4060781253286662</v>
+        <v>0.3855122973504174</v>
       </c>
       <c r="E9">
-        <v>0.6372425953502058</v>
+        <v>0.6208963660309322</v>
       </c>
       <c r="F9">
-        <v>0.617029478657324</v>
+        <v>0.5962504332730643</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2001119336488088</v>
+        <v>0.2058289907268505</v>
       </c>
       <c r="C10">
-        <v>0.4652084773530266</v>
+        <v>0.4532524315174537</v>
       </c>
       <c r="D10">
-        <v>0.3905600620764926</v>
+        <v>0.3699707508218096</v>
       </c>
       <c r="E10">
-        <v>0.6249480475019444</v>
+        <v>0.6082522098782788</v>
       </c>
       <c r="F10">
-        <v>0.614392374328527</v>
+        <v>0.5924572112923694</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2336682397409445</v>
+        <v>0.2381956871565345</v>
       </c>
       <c r="C11">
-        <v>0.3914689735703308</v>
+        <v>0.3847249399981075</v>
       </c>
       <c r="D11">
-        <v>0.1986242308925615</v>
+        <v>0.1907396565338637</v>
       </c>
       <c r="E11">
-        <v>0.4456727845544997</v>
+        <v>0.4367375144567543</v>
       </c>
       <c r="F11">
-        <v>0.3950004219592778</v>
+        <v>0.3798820258321563</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1103015140893087</v>
+        <v>-0.2359795975604194</v>
       </c>
       <c r="C2">
-        <v>1.867466406311011</v>
+        <v>1.900377010157683</v>
       </c>
       <c r="D2">
-        <v>16.07388988832066</v>
+        <v>11.8897934829752</v>
       </c>
       <c r="E2">
-        <v>4.009225597084886</v>
+        <v>3.448157984051079</v>
       </c>
       <c r="F2">
-        <v>4.097780106789175</v>
+        <v>3.521027694101534</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1241568715908939</v>
+        <v>-0.3407653498485861</v>
       </c>
       <c r="C3">
-        <v>1.713852921858244</v>
+        <v>1.038808833104293</v>
       </c>
       <c r="D3">
-        <v>10.94170538271163</v>
+        <v>4.33724652853252</v>
       </c>
       <c r="E3">
-        <v>3.307824871832188</v>
+        <v>2.08260570644866</v>
       </c>
       <c r="F3">
-        <v>3.383280951883025</v>
+        <v>2.105274751693671</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5207749427252132</v>
+        <v>-0.131555750701869</v>
       </c>
       <c r="C4">
-        <v>1.008444475967709</v>
+        <v>0.8460533655601525</v>
       </c>
       <c r="D4">
-        <v>4.236175762135406</v>
+        <v>2.692507442697656</v>
       </c>
       <c r="E4">
-        <v>2.058197211672245</v>
+        <v>1.640886176033443</v>
       </c>
       <c r="F4">
-        <v>2.040396452217854</v>
+        <v>1.678094322408583</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08713849139876084</v>
+        <v>0.0945621327354168</v>
       </c>
       <c r="C5">
-        <v>0.7045681055244151</v>
+        <v>0.8356365543419514</v>
       </c>
       <c r="D5">
-        <v>1.740827324384067</v>
+        <v>2.101234218072367</v>
       </c>
       <c r="E5">
-        <v>1.319404155057906</v>
+        <v>1.449563457759738</v>
       </c>
       <c r="F5">
-        <v>1.350724642826101</v>
+        <v>1.486112606047758</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.05311708210651798</v>
+        <v>-0.05968872511646385</v>
       </c>
       <c r="C6">
-        <v>0.7222531657823513</v>
+        <v>0.6371319026568236</v>
       </c>
       <c r="D6">
-        <v>1.611489849032536</v>
+        <v>0.778561022117543</v>
       </c>
       <c r="E6">
-        <v>1.269444701053392</v>
+        <v>0.8823610497509186</v>
       </c>
       <c r="F6">
-        <v>1.30308821368913</v>
+        <v>0.9058622479295383</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01086339460369382</v>
+        <v>0.09265814781738935</v>
       </c>
       <c r="C7">
-        <v>0.5852842659497787</v>
+        <v>0.5989980499374025</v>
       </c>
       <c r="D7">
-        <v>0.6191602100143899</v>
+        <v>0.6944883350010943</v>
       </c>
       <c r="E7">
-        <v>0.7868673395270577</v>
+        <v>0.8333596672512381</v>
       </c>
       <c r="F7">
-        <v>0.8096026454595719</v>
+        <v>0.8536812799923659</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.09509580837041771</v>
+        <v>0.189786657949447</v>
       </c>
       <c r="C8">
-        <v>0.5696764806980906</v>
+        <v>0.5225847098032543</v>
       </c>
       <c r="D8">
-        <v>0.5776344400534255</v>
+        <v>0.4703199534050894</v>
       </c>
       <c r="E8">
-        <v>0.760022657592144</v>
+        <v>0.6857987703438155</v>
       </c>
       <c r="F8">
-        <v>0.7772568294901242</v>
+        <v>0.6806279280150794</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2285112237303573</v>
+        <v>0.2020970918481325</v>
       </c>
       <c r="C9">
-        <v>0.484995177258808</v>
+        <v>0.4802119434926625</v>
       </c>
       <c r="D9">
-        <v>0.3855122973504174</v>
+        <v>0.4448954675707786</v>
       </c>
       <c r="E9">
-        <v>0.6208963660309322</v>
+        <v>0.6670048482363368</v>
       </c>
       <c r="F9">
-        <v>0.5962504332730643</v>
+        <v>0.6579613262386209</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2058289907268505</v>
+        <v>0.216926569107512</v>
       </c>
       <c r="C10">
-        <v>0.4532524315174537</v>
+        <v>0.3902862058645244</v>
       </c>
       <c r="D10">
-        <v>0.3699707508218096</v>
+        <v>0.2053025722297817</v>
       </c>
       <c r="E10">
-        <v>0.6082522098782788</v>
+        <v>0.4531032688359043</v>
       </c>
       <c r="F10">
-        <v>0.5924572112923694</v>
+        <v>0.4128173466307566</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2381956871565345</v>
+        <v>0.2444166901726743</v>
       </c>
       <c r="C11">
-        <v>0.3847249399981075</v>
+        <v>0.3999205401577337</v>
       </c>
       <c r="D11">
-        <v>0.1907396565338637</v>
+        <v>0.2150394398791692</v>
       </c>
       <c r="E11">
-        <v>0.4367375144567543</v>
+        <v>0.4637234519400212</v>
       </c>
       <c r="F11">
-        <v>0.3798820258321563</v>
+        <v>0.4101726241042355</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2359795975604194</v>
+        <v>-0.1103015140893087</v>
       </c>
       <c r="C2">
-        <v>1.900377010157683</v>
+        <v>1.867466406311011</v>
       </c>
       <c r="D2">
-        <v>11.8897934829752</v>
+        <v>16.07388988832066</v>
       </c>
       <c r="E2">
-        <v>3.448157984051079</v>
+        <v>4.009225597084886</v>
       </c>
       <c r="F2">
-        <v>3.521027694101534</v>
+        <v>4.097780106789175</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.3407653498485861</v>
+        <v>0.1241568715908939</v>
       </c>
       <c r="C3">
-        <v>1.038808833104293</v>
+        <v>1.713852921858244</v>
       </c>
       <c r="D3">
-        <v>4.33724652853252</v>
+        <v>10.94170538271163</v>
       </c>
       <c r="E3">
-        <v>2.08260570644866</v>
+        <v>3.307824871832188</v>
       </c>
       <c r="F3">
-        <v>2.105274751693671</v>
+        <v>3.383280951883025</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.131555750701869</v>
+        <v>-0.5207749427252132</v>
       </c>
       <c r="C4">
-        <v>0.8460533655601525</v>
+        <v>1.008444475967709</v>
       </c>
       <c r="D4">
-        <v>2.692507442697656</v>
+        <v>4.236175762135406</v>
       </c>
       <c r="E4">
-        <v>1.640886176033443</v>
+        <v>2.058197211672245</v>
       </c>
       <c r="F4">
-        <v>1.678094322408583</v>
+        <v>2.040396452217854</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0945621327354168</v>
+        <v>0.08713849139876084</v>
       </c>
       <c r="C5">
-        <v>0.8356365543419514</v>
+        <v>0.7045681055244151</v>
       </c>
       <c r="D5">
-        <v>2.101234218072367</v>
+        <v>1.740827324384067</v>
       </c>
       <c r="E5">
-        <v>1.449563457759738</v>
+        <v>1.319404155057906</v>
       </c>
       <c r="F5">
-        <v>1.486112606047758</v>
+        <v>1.350724642826101</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.05968872511646385</v>
+        <v>0.05311708210651798</v>
       </c>
       <c r="C6">
-        <v>0.6371319026568236</v>
+        <v>0.7222531657823513</v>
       </c>
       <c r="D6">
-        <v>0.778561022117543</v>
+        <v>1.611489849032536</v>
       </c>
       <c r="E6">
-        <v>0.8823610497509186</v>
+        <v>1.269444701053392</v>
       </c>
       <c r="F6">
-        <v>0.9058622479295383</v>
+        <v>1.30308821368913</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09265814781738935</v>
+        <v>0.01086339460369382</v>
       </c>
       <c r="C7">
-        <v>0.5989980499374025</v>
+        <v>0.5852842659497787</v>
       </c>
       <c r="D7">
-        <v>0.6944883350010943</v>
+        <v>0.6191602100143899</v>
       </c>
       <c r="E7">
-        <v>0.8333596672512381</v>
+        <v>0.7868673395270577</v>
       </c>
       <c r="F7">
-        <v>0.8536812799923659</v>
+        <v>0.8096026454595719</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.189786657949447</v>
+        <v>0.09509580837041771</v>
       </c>
       <c r="C8">
-        <v>0.5225847098032543</v>
+        <v>0.5696764806980906</v>
       </c>
       <c r="D8">
-        <v>0.4703199534050894</v>
+        <v>0.5776344400534255</v>
       </c>
       <c r="E8">
-        <v>0.6857987703438155</v>
+        <v>0.760022657592144</v>
       </c>
       <c r="F8">
-        <v>0.6806279280150794</v>
+        <v>0.7772568294901242</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2020970918481325</v>
+        <v>0.2285112237303573</v>
       </c>
       <c r="C9">
-        <v>0.4802119434926625</v>
+        <v>0.484995177258808</v>
       </c>
       <c r="D9">
-        <v>0.4448954675707786</v>
+        <v>0.3855122973504174</v>
       </c>
       <c r="E9">
-        <v>0.6670048482363368</v>
+        <v>0.6208963660309322</v>
       </c>
       <c r="F9">
-        <v>0.6579613262386209</v>
+        <v>0.5962504332730643</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.216926569107512</v>
+        <v>0.2058289907268505</v>
       </c>
       <c r="C10">
-        <v>0.3902862058645244</v>
+        <v>0.4532524315174537</v>
       </c>
       <c r="D10">
-        <v>0.2053025722297817</v>
+        <v>0.3699707508218096</v>
       </c>
       <c r="E10">
-        <v>0.4531032688359043</v>
+        <v>0.6082522098782788</v>
       </c>
       <c r="F10">
-        <v>0.4128173466307566</v>
+        <v>0.5924572112923694</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2444166901726743</v>
+        <v>0.2381956871565345</v>
       </c>
       <c r="C11">
-        <v>0.3999205401577337</v>
+        <v>0.3847249399981075</v>
       </c>
       <c r="D11">
-        <v>0.2150394398791692</v>
+        <v>0.1907396565338637</v>
       </c>
       <c r="E11">
-        <v>0.4637234519400212</v>
+        <v>0.4367375144567543</v>
       </c>
       <c r="F11">
-        <v>0.4101726241042355</v>
+        <v>0.3798820258321563</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
